--- a/pluviometria.xlsx
+++ b/pluviometria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="202">
   <si>
     <t>Dia</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>6.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
   </si>
 </sst>
 </file>
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView tabSelected="1" topLeftCell="AD13" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">

--- a/pluviometria.xlsx
+++ b/pluviometria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="204">
   <si>
     <t>Dia</t>
   </si>
@@ -434,9 +434,6 @@
     <t>20.6</t>
   </si>
   <si>
-    <t>83.5</t>
-  </si>
-  <si>
     <t>11.3</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>28.1</t>
   </si>
   <si>
-    <t>119.0</t>
-  </si>
-  <si>
     <t>54.5</t>
   </si>
   <si>
@@ -630,6 +624,18 @@
   </si>
   <si>
     <t>7.9</t>
+  </si>
+  <si>
+    <t>50.1</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>53.4</t>
   </si>
 </sst>
 </file>
@@ -987,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD13" workbookViewId="0">
-      <selection activeCell="AP26" sqref="AP26"/>
+    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,127 +1013,127 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
@@ -1361,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>10</v>
@@ -1486,7 +1492,7 @@
         <v>10</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>10</v>
@@ -1873,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK7" s="5" t="s">
         <v>10</v>
@@ -2123,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>10</v>
@@ -2132,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AJ9" s="5" t="s">
         <v>10</v>
@@ -2409,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2537,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="AP12" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2641,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>10</v>
@@ -2763,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>10</v>
@@ -2894,7 +2900,7 @@
         <v>10</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH15" s="5" t="s">
         <v>10</v>
@@ -2921,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3144,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF17" s="5" t="s">
         <v>10</v>
@@ -3177,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -3281,10 +3287,10 @@
         <v>10</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>10</v>
@@ -3433,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
@@ -3787,13 +3793,13 @@
         <v>10</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>10</v>
@@ -3915,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="AG23" s="5" t="s">
         <v>10</v>
@@ -4037,13 +4043,13 @@
         <v>10</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AE24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="AG24" s="5" t="s">
         <v>10</v>
@@ -4165,13 +4171,13 @@
         <v>10</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="AE25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG25" s="5" t="s">
         <v>10</v>
@@ -4198,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="AO25" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AP25" s="5" t="s">
         <v>10</v>
@@ -4329,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -4427,7 +4433,7 @@
         <v>10</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG27" s="5" t="s">
         <v>10</v>
@@ -4805,7 +4811,7 @@
         <v>10</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>10</v>
@@ -4933,7 +4939,7 @@
         <v>10</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE31" s="5" t="s">
         <v>10</v>

--- a/pluviometria.xlsx
+++ b/pluviometria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="206">
   <si>
     <t>Dia</t>
   </si>
@@ -636,6 +636,12 @@
   </si>
   <si>
     <t>53.4</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>nov_2021</t>
   </si>
 </sst>
 </file>
@@ -993,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1141,9 @@
       <c r="AP1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AQ1" s="4"/>
+      <c r="AQ1" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="AR1" s="4"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -1265,6 +1273,9 @@
       <c r="AP2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1393,6 +1404,9 @@
       <c r="AP3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1521,6 +1535,9 @@
       <c r="AP4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ4" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1649,6 +1666,9 @@
       <c r="AP5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1777,6 +1797,9 @@
       <c r="AP6" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="AQ6" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1905,6 +1928,9 @@
       <c r="AP7" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2033,6 +2059,9 @@
       <c r="AP8" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ8" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2161,6 +2190,9 @@
       <c r="AP9" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2289,6 +2321,9 @@
       <c r="AP10" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ10" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2416,6 +2451,9 @@
       </c>
       <c r="AP11" s="5" t="s">
         <v>155</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2545,6 +2583,9 @@
       <c r="AP12" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="AQ12" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2673,6 +2714,9 @@
       <c r="AP13" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="AQ13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2801,6 +2845,9 @@
       <c r="AP14" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ14" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2929,6 +2976,9 @@
       <c r="AP15" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="AQ15" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3057,8 +3107,11 @@
       <c r="AP16" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ16" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3185,8 +3238,11 @@
       <c r="AP17" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="AQ17" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3313,8 +3369,11 @@
       <c r="AP18" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ18" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3441,8 +3500,11 @@
       <c r="AP19" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="AQ19" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3569,8 +3631,11 @@
       <c r="AP20" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ20" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3697,8 +3762,11 @@
       <c r="AP21" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="AQ21" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3825,8 +3893,11 @@
       <c r="AP22" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ22" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3953,8 +4024,11 @@
       <c r="AP23" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ23" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4081,8 +4155,11 @@
       <c r="AP24" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ24" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4209,8 +4286,11 @@
       <c r="AP25" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ25" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4337,8 +4417,11 @@
       <c r="AP26" s="5" t="s">
         <v>199</v>
       </c>
+      <c r="AQ26" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4465,8 +4548,11 @@
       <c r="AP27" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ27" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4593,8 +4679,11 @@
       <c r="AP28" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ28" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4721,8 +4810,11 @@
       <c r="AP29" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ29" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4849,8 +4941,11 @@
       <c r="AP30" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ30" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4977,8 +5072,11 @@
       <c r="AP31" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="AQ31" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5103,6 +5201,9 @@
         <v>10</v>
       </c>
       <c r="AP32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
         <v>10</v>
       </c>
     </row>
